--- a/resource/excel_bar/Activity.xlsx
+++ b/resource/excel_bar/Activity.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCFDE2-C7B7-47BB-905B-3C1AE413DC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33890" yWindow="4300" windowWidth="27440" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28440" windowHeight="15570"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityItem" sheetId="1" r:id="rId1"/>
@@ -27,119 +21,118 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Gifts</t>
   </si>
   <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>LunarCalendar</t>
+  </si>
+  <si>
+    <t>CyclePeriodType</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
     <t>Dict&lt;String,Int32&gt;</t>
   </si>
   <si>
+    <t>Dict&lt;Int32,Single&gt;</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
     <t>EnumRef:EItemType</t>
   </si>
   <si>
+    <t>EnumRef:ECyclePeriodType</t>
+  </si>
+  <si>
+    <t>Partial:3;CustomEnum:_ItemType,_CyclePeriodType</t>
+  </si>
+  <si>
+    <t>Daily1</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>DailySign</t>
+  </si>
+  <si>
+    <t>SignIn:1</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative </t>
-  </si>
-  <si>
-    <t>Priority</t>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Always</t>
   </si>
   <si>
     <t>Settlement</t>
   </si>
   <si>
     <t>SignIn</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Daily1</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,Single&gt;</t>
-  </si>
-  <si>
-    <t>LunarCalendar</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>CyclePeriodType</t>
-  </si>
-  <si>
-    <t>EnumRef:ECyclePeriodType</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>DailySign</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>19:00:00</t>
-  </si>
-  <si>
-    <t>22:00:00</t>
-  </si>
-  <si>
-    <t>SignIn:1</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Partial:3;CustomEnum:_ItemType,_CyclePeriodType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -148,8 +141,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,13 +295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39991454817346722"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,13 +313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,12 +331,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -207,9 +518,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -220,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -229,33 +782,77 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,30 +1110,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.2833333333333" customWidth="1"/>
+    <col min="3" max="4" width="19.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.5666666666667" customWidth="1"/>
+    <col min="6" max="6" width="27.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.425" customWidth="1"/>
+    <col min="8" max="8" width="25.5666666666667" customWidth="1"/>
+    <col min="9" max="9" width="21.425" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -544,87 +1141,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -635,11 +1232,11 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>0</v>
@@ -655,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -672,8 +1269,8 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -681,52 +1278,54 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" ht="15" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FCEA98-944D-4C67-9B8C-113EFD3A8EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -734,7 +1333,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -742,7 +1341,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -750,7 +1349,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -758,7 +1357,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -766,26 +1365,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -793,7 +1394,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -801,6 +1402,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/Activity.xlsx
+++ b/resource/excel_bar/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E8FFB-BC8B-4664-9448-C8F7D3E243FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3E0C0-705E-4D32-85C6-B154EC94E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="5170" windowWidth="27440" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32430" yWindow="8130" windowWidth="27440" windowHeight="13060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityItem" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>DoLike</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>PopularityTicket</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -771,10 +777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -806,6 +812,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/resource/excel_bar/Activity.xlsx
+++ b/resource/excel_bar/Activity.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3E0C0-705E-4D32-85C6-B154EC94E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32430" yWindow="8130" windowWidth="27440" windowHeight="13060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityItem" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +33,9 @@
     <t>Gifts</t>
   </si>
   <si>
+    <t>OverrideGifts</t>
+  </si>
+  <si>
     <t>Multiplier</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
     <t>Int32</t>
   </si>
   <si>
+    <t>Dict&lt;Int32,String&gt;</t>
+  </si>
+  <si>
     <t>Dict&lt;Int32,Single&gt;</t>
   </si>
   <si>
@@ -81,6 +81,9 @@
     <t>Daily1</t>
   </si>
   <si>
+    <t>0:1.35;3:1.4;33:1.4</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
@@ -90,6 +93,15 @@
     <t>DailySign</t>
   </si>
   <si>
+    <t>0:DailySign;3:DailySign</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>0:DailyLike;3:DailyLike</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -109,12 +121,6 @@
   </si>
   <si>
     <t>SignIn</t>
-  </si>
-  <si>
-    <t>Dict&lt;Int32,String&gt;</t>
-  </si>
-  <si>
-    <t>OverrideGifts</t>
   </si>
   <si>
     <t>DoLike</t>
@@ -129,19 +135,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,8 +162,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,13 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39991454817346722"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39988402966399123"/>
+        <fgColor theme="3" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,13 +334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,12 +352,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,9 +539,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -245,17 +817,61 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -513,30 +1129,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.8583333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.2833333333333" customWidth="1"/>
+    <col min="3" max="4" width="19.7083333333333" customWidth="1"/>
+    <col min="5" max="6" width="23.5666666666667" customWidth="1"/>
+    <col min="7" max="7" width="27.8583333333333" customWidth="1"/>
+    <col min="8" max="8" width="21.425" customWidth="1"/>
+    <col min="9" max="9" width="25.5666666666667" customWidth="1"/>
+    <col min="10" max="10" width="21.425" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -556,58 +1172,58 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="8"/>
     </row>
@@ -616,14 +1232,14 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -631,7 +1247,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -645,9 +1261,9 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" ht="15" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="b">
         <v>0</v>
@@ -656,6 +1272,9 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
@@ -663,15 +1282,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="b">
         <v>0</v>
@@ -680,6 +1299,9 @@
       <c r="D6" s="7">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
@@ -689,25 +1311,40 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+    <row r="7" ht="15" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="b">
+        <v>0</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -715,23 +1352,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -739,7 +1378,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -747,7 +1386,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -755,7 +1394,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -763,7 +1402,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -771,26 +1410,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -798,7 +1439,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -806,7 +1447,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -814,7 +1455,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -822,7 +1463,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -830,6 +1471,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/Activity.xlsx
+++ b/resource/excel_bar/Activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12315"/>
+    <workbookView windowWidth="31515" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityItem" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>0:DailyLike;3:DailyLike</t>
+  </si>
+  <si>
+    <t>中秋Honor</t>
+  </si>
+  <si>
+    <t>0:1.86;3:1.86;33:1.86</t>
+  </si>
+  <si>
+    <t>0001-08-15 09:00:00</t>
+  </si>
+  <si>
+    <t>0001-08-15 23:59:59</t>
+  </si>
+  <si>
+    <t>中秋Gift</t>
+  </si>
+  <si>
+    <t>0:中秋Gift;3:中秋Gift</t>
+  </si>
+  <si>
+    <t>中秋Like</t>
+  </si>
+  <si>
+    <t>0:中秋DailyLike;3:中秋DailyLike</t>
   </si>
   <si>
     <t>None</t>
@@ -139,8 +163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,24 +187,51 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +239,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,25 +260,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,27 +284,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -260,54 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,7 +376,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,37 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,121 +514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -560,6 +598,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,33 +636,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,25 +655,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,19 +673,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,116 +694,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -807,9 +825,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1138,7 +1153,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1146,12 +1161,13 @@
     <col min="1" max="1" width="12.8583333333333" customWidth="1"/>
     <col min="2" max="2" width="20.2833333333333" customWidth="1"/>
     <col min="3" max="4" width="19.7083333333333" customWidth="1"/>
-    <col min="5" max="6" width="23.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="23.5666666666667" customWidth="1"/>
     <col min="7" max="7" width="27.8583333333333" customWidth="1"/>
     <col min="8" max="8" width="21.425" customWidth="1"/>
     <col min="9" max="9" width="25.5666666666667" customWidth="1"/>
     <col min="10" max="10" width="21.425" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
     <col min="12" max="12" width="15.425" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,7 +1259,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
@@ -1281,10 +1297,10 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1308,8 +1324,8 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" ht="15" spans="1:9">
       <c r="A7" s="6" t="s">
@@ -1332,23 +1348,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+    <row r="8" customFormat="1" ht="15" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="15" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="15" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1378,7 +1463,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1386,7 +1471,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1394,7 +1479,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1402,7 +1487,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1431,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1439,7 +1524,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1447,7 +1532,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1455,7 +1540,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1463,7 +1548,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>5</v>
